--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum_w-raw-ss-lookup-tabbed.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/lswe_sum_w-raw-ss-lookup-tabbed.xlsx
@@ -12,7 +12,10 @@
     <sheet name="5.8-5.11" sheetId="3" r:id="rId3"/>
     <sheet name="6.0-6.5" sheetId="4" r:id="rId4"/>
     <sheet name="6.6-6.11" sheetId="5" r:id="rId5"/>
-    <sheet name="7.0-9.3" sheetId="6" r:id="rId6"/>
+    <sheet name="7.0-7.5" sheetId="6" r:id="rId6"/>
+    <sheet name="7.6-7.11" sheetId="7" r:id="rId7"/>
+    <sheet name="8.0-8.5" sheetId="8" r:id="rId8"/>
+    <sheet name="8.6-9.3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -356,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,7 +382,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +390,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +398,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +414,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -443,7 +446,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +454,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +462,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +470,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +478,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
@@ -483,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
@@ -491,7 +494,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17">
@@ -499,7 +502,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
@@ -507,7 +510,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -515,7 +518,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -531,7 +534,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22">
@@ -539,7 +542,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -675,166 +678,6 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
         <v>130</v>
       </c>
     </row>
@@ -845,7 +688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -876,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -884,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -892,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -908,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -916,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -924,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -932,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -940,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
@@ -948,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -956,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -964,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
@@ -972,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -980,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
@@ -988,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18">
@@ -996,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
@@ -1004,7 +847,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
@@ -1012,7 +855,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21">
@@ -1020,7 +863,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22">
@@ -1028,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -1036,7 +879,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -1044,7 +887,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -1052,7 +895,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -1060,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -1068,7 +911,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -1076,7 +919,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -1084,7 +927,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -1164,166 +1007,6 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
         <v>130</v>
       </c>
     </row>
@@ -1334,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1357,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -1365,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -1373,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1381,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1389,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1397,7 +1080,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1405,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1413,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
@@ -1421,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
@@ -1429,7 +1112,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -1437,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -1445,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -1453,7 +1136,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -1461,7 +1144,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
@@ -1469,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
@@ -1477,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -1485,7 +1168,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -1493,7 +1176,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
@@ -1501,7 +1184,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21">
@@ -1509,7 +1192,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
@@ -1517,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
@@ -1525,7 +1208,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
@@ -1533,7 +1216,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25">
@@ -1541,7 +1224,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
@@ -1549,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -1557,7 +1240,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -1565,7 +1248,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -1573,7 +1256,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -1581,7 +1264,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -1589,7 +1272,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -1597,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -1605,7 +1288,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -1613,7 +1296,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -1621,7 +1304,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -1653,166 +1336,6 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
         <v>130</v>
       </c>
     </row>
@@ -1823,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1846,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -1854,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1862,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1870,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1878,7 +1401,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -1886,7 +1409,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -1894,7 +1417,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -1902,7 +1425,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -1910,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -1918,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -1926,7 +1449,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -1934,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -1942,7 +1465,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -1950,7 +1473,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1958,7 +1481,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -1966,7 +1489,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
@@ -1974,7 +1497,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -1982,7 +1505,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -1990,7 +1513,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -1998,7 +1521,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
@@ -2006,7 +1529,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -2014,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -2022,7 +1545,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
@@ -2030,7 +1553,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
@@ -2038,7 +1561,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -2046,7 +1569,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -2054,7 +1577,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
@@ -2062,7 +1585,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
@@ -2070,7 +1593,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -2078,7 +1601,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -2086,7 +1609,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -2094,7 +1617,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -2102,7 +1625,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -2110,7 +1633,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -2118,7 +1641,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -2126,7 +1649,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -2134,7 +1657,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
@@ -2142,166 +1665,6 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
         <v>130</v>
       </c>
     </row>
@@ -2312,7 +1675,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2335,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -2343,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -2351,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -2359,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -2367,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -2375,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -2383,7 +1746,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -2391,7 +1754,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2399,7 +1762,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -2407,7 +1770,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -2415,7 +1778,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -2423,7 +1786,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -2431,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
@@ -2439,7 +1802,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
@@ -2447,7 +1810,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -2455,7 +1818,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -2463,7 +1826,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
@@ -2471,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -2479,7 +1842,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -2487,7 +1850,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -2495,7 +1858,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -2503,7 +1866,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -2511,7 +1874,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -2519,7 +1882,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -2527,7 +1890,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -2535,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
@@ -2543,7 +1906,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -2551,7 +1914,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -2559,7 +1922,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
@@ -2567,7 +1930,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32">
@@ -2575,7 +1938,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -2583,7 +1946,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -2591,7 +1954,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -2599,7 +1962,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -2607,7 +1970,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -2615,7 +1978,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -2623,7 +1986,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
@@ -2631,166 +1994,6 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
         <v>130</v>
       </c>
     </row>
@@ -2801,7 +2004,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2824,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -2832,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -2840,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -2848,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -2856,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -2864,7 +2067,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -2872,7 +2075,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -2880,7 +2083,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -2888,7 +2091,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -2896,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -2904,7 +2107,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -2912,7 +2115,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -2920,7 +2123,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -2928,7 +2131,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -2936,7 +2139,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -2944,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -2952,7 +2155,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -2960,7 +2163,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -2968,7 +2171,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -2976,7 +2179,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -2984,7 +2187,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -2992,7 +2195,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -3000,7 +2203,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -3008,7 +2211,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
@@ -3016,7 +2219,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
@@ -3024,7 +2227,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
@@ -3032,7 +2235,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -3040,7 +2243,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -3048,7 +2251,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -3056,7 +2259,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -3064,7 +2267,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
@@ -3072,7 +2275,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -3080,7 +2283,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
@@ -3088,7 +2291,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
@@ -3096,7 +2299,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -3104,7 +2307,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -3112,7 +2315,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
@@ -3120,167 +2323,994 @@
         <v>38</v>
       </c>
       <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>109</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>110</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41">
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>raw</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>40</v>
       </c>
-      <c r="B41">
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>112</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>130</v>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
